--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fineex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fineex\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>第一次数据</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+  <si>
+    <t>工资表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -34,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,21 +94,57 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -73,8 +153,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -357,21 +455,383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <f>SUM(B3:H3)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <f>SUM(B4:H4)</f>
+        <v>5.5</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" ref="I5:I8" si="0">SUM(B5:H5)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>工资表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,9 +164,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -174,6 +175,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,26 +462,26 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -509,322 +513,325 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>1.5</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
         <f>SUM(B3:H3)</f>
         <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>1.5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
         <f>SUM(B4:H4)</f>
         <v>5.5</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>-1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>0.5</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" ref="I5:I8" si="0">SUM(B5:H5)</f>
         <v>6.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
         <v>4.5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>-2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>-3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>-0.5</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
         <v>7.5</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>-4</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>-1</v>
       </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/a.xlsx
+++ b/a.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>工资表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,14 @@
   </si>
   <si>
     <t>房东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +470,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -708,13 +716,17 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>工资表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t xml:space="preserve"> 动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方赛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,15 +471,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -491,7 +495,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -520,7 +524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -550,7 +554,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -579,7 +583,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -609,7 +613,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -637,7 +641,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -666,8 +670,11 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -698,7 +705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -709,7 +716,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -722,7 +729,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
@@ -735,7 +742,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -746,7 +753,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -757,7 +764,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -768,7 +775,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -779,7 +786,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>工资表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>东方赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +478,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -704,6 +708,9 @@
       <c r="K8" t="s">
         <v>12</v>
       </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>工资表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t xml:space="preserve"> 动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打算A栋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +474,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -734,6 +738,9 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
